--- a/PRECIOS COMPETENCIA Oct 2024.xlsx
+++ b/PRECIOS COMPETENCIA Oct 2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2479,6 +2479,1938 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Amalaya Blanco Blend</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>90% Torrontés | 10% Riesling</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Amalaya Malbec</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>85% Malbec | 10% Tannat | 5% Petit Verdot</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Alta Vista Estate Premium Malbec</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>$13.800</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>$8.970</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Andeluna Altitud Malbec</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>$11.450</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>$9.160</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Andeluna 1300 Chardonnay</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Chardonnay</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>100% Chardonnay</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>$7.440</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>$5.952</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas Reserva Malbec</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>$28.000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>$18.200</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Colonia Las Liebres Bonarda</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bonarda</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>100% Bonarda</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>$8.500</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>$5.525</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Territorio Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>100% Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Territorio Malbec</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas Clásico Malbec</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>$9.000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>$7.200</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Amalaya Rosé Blend</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>95% Malbec | 5% Torrontés</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Rosado</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Territorio Torrontés</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Torrontés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>100% Torrontés</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Andeluna Altitud Chardonnay</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Chardonnay</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>100% Chardonnay</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>$11.450</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>$9.160</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Altocedro Gran Reserva Malbec</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Altocedro</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>$132.000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>$118.800</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Alta Vista Estate Premium Chardonnay</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Chardonnay</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>100% Chardonnay</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>$13.800</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>$8.970</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Amalaya Gran Corte Blend</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Amalaya</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>85% Malbec | 15% Tannat y Cabernet Franc</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Andeluna Pasionado Cuatro Cepas</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>20% Cabernet Sauvignon | 35% Merlot | 35% Malbec | 10% Cabernet Franc</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>$31.420</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>$25.136</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Andeluna 1300 Malbec</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>$7.440</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>$5.952</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas Terroir Malbec Valle de Uco</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Altos Las Hormigas</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>$16.500</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>$13.200</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Alta Vista Estate Premium Torrontés</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Torrontés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>100% Torrontés</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>$13.800</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>$11.040</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Altus Malbec</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>$9.400</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>$7.520</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Alta Vista Single Vineyard Alizarine Malbec</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>$65.500</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>$52.400</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Alta Vista Single Vineyard Serenade Malbec</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>$65.500</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>$42.575</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Alta Vista Single Vineyard Temis Malbec</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>$65.500</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>$42.575</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Alta Vista Terroir Selection Malbec</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Alta Vista</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>$28.300</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>$22.640</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Altocedro Reserva Malbec</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Altocedro</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>$72.000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>$64.800</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Año Cero Malbec</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Altocedro</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>$26.000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>$20.800</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Año Cero Tempranillo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Altocedro</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tempranillo</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>100% Tempranillo</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>$26.000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>$20.800</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Altus Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>100% Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>$9.400</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>$7.520</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Altus Chardonnay</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chardonnay</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>100% Chardonnay</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>$9.400</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>$7.520</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Altus Gran Reserva Blend</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Malbec | Cabernet Sauvignon | Merlot</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>$23.530</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>$18.824</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Altus Gran Reserva Chardonnay</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Chardonnay</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100% Chardonnay</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>$17.600</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>$14.080</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Altus Merlot</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Merlot</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>100% Merlot</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>$9.400</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>$7.520</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Altus Reserva Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>100% Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>$13.900</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>$11.120</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Altus Reserva Chardonnay</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chardonnay</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>100% Chardonnay</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>$13.900</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>$11.120</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Altus Reserva Malbec</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>$13.900</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>$11.120</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Altus Reserva Merlot</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Merlot</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100% Merlot</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>$13.900</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>$11.120</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Gualtallary Blend</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>$47.600</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>$38.080</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Gualtallary Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100% Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>$47.600</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>$38.080</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Gualtallary Malbec</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>$47.600</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>$38.080</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Gualtallary Merlot</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Altus</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Merlot</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100% Merlot</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>$47.600</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>$38.080</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Andeluna 1300 Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100% Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>$7.440</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>$4.836</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Andeluna 1300 Merlot</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Merlot</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100% Merlot</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>$7.440</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>$5.952</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Andeluna Altitud Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>100% Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>$11.450</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>$9.160</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Andeluna Altitud Merlot</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Merlot</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>100% Merlot</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>$11.450</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>$9.160</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Andeluna Pasionado Cabernet Franc</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Cabernet Franc</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>100% Cabernet Franc</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>$54.990</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>$43.992</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Andeluna Pasionado Malbec</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Andeluna</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Malbec</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>100% Malbec</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>$31.420</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>$25.136</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Aduentus Clásico Blend</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Antigal</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Blend</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Malbec | Merlot | Cabernet Sauvignon</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Tinto</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>$18.000</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>$14.400</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
